--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>686500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>191800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>191800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>76200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,43 @@
         <v>76200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>112200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>112200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>257800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>257800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>471900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,41 @@
         <v>471900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>207700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43430,6 +43430,43 @@
         <v>207700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43504,6 +43504,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>6800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,76 @@
         <v>6800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>419500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,76 @@
         <v>419500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>310700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43714,6 +43714,41 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>343000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,41 @@
         <v>343000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>973500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43819,6 +43819,76 @@
         <v>973500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>420700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>570100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,41 @@
         <v>570100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>650100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43924,6 +43924,41 @@
         <v>650100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2097200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2642"/>
+  <dimension ref="A1:I2643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92994,6 +92994,41 @@
         <v>2097200</v>
       </c>
     </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2643" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2643" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2643" t="n">
+        <v>2597900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2643"/>
+  <dimension ref="A1:I2644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93029,6 +93029,41 @@
         <v>2597900</v>
       </c>
     </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2644" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2644" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2644" t="n">
+        <v>3280600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2644"/>
+  <dimension ref="A1:I2645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93064,6 +93064,41 @@
         <v>3280600</v>
       </c>
     </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2645" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2645" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2645" t="n">
+        <v>2398000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2645"/>
+  <dimension ref="A1:I2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93099,6 +93099,41 @@
         <v>2398000</v>
       </c>
     </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2646" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2646" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2646" t="n">
+        <v>3465800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2646"/>
+  <dimension ref="A1:I2647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93134,6 +93134,41 @@
         <v>3465800</v>
       </c>
     </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2647" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2647" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2647" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2647" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2647" t="n">
+        <v>3222900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2647"/>
+  <dimension ref="A1:I2648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93169,6 +93169,41 @@
         <v>3222900</v>
       </c>
     </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2648" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2648" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2648" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2648" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2648" t="n">
+        <v>4865400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2648"/>
+  <dimension ref="A1:I2649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93204,6 +93204,41 @@
         <v>4865400</v>
       </c>
     </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2649" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2649" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2649" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2649" t="n">
+        <v>340100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2649"/>
+  <dimension ref="A1:I2650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93239,6 +93239,41 @@
         <v>340100</v>
       </c>
     </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2650" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2650" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2650" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2650" t="n">
+        <v>4141200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93274,6 +93274,41 @@
         <v>4141200</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>600000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93309,6 +93309,41 @@
         <v>600000</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>302000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93344,6 +93344,41 @@
         <v>302000</v>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2653" t="n">
+        <v>3063800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2653"/>
+  <dimension ref="A1:I2654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93379,6 +93379,41 @@
         <v>3063800</v>
       </c>
     </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>384000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2654"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93414,6 +93414,41 @@
         <v>384000</v>
       </c>
     </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2655"/>
+  <dimension ref="A1:I2656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93449,6 +93449,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2656" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2656" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2656" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2656" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2656" t="n">
+        <v>577000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7198.xlsx
+++ b/data/7198.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2656"/>
+  <dimension ref="A1:I2657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93484,6 +93484,41 @@
         <v>577000</v>
       </c>
     </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="E2657" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2657" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2657" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2657" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2657" t="n">
+        <v>831100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
